--- a/JO1066 mold analysis 0213.xlsx
+++ b/JO1066 mold analysis 0213.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhucNguyen\Desktop\Mold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhucNguyen\Desktop\Mold\Mold\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="739" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="739" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="JO1066 rubber" sheetId="102" r:id="rId1"/>
@@ -1465,7 +1465,7 @@
     <numFmt numFmtId="170" formatCode="0;[Red]0"/>
     <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="53">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -1774,6 +1774,14 @@
       <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="24">
@@ -2328,7 +2336,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2469,8 +2477,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2955,8 +2964,11 @@
     <xf numFmtId="0" fontId="27" fillId="20" borderId="11" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="54" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="55">
     <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
@@ -2975,6 +2987,7 @@
     <cellStyle name="60% - 强调文字颜色 4" xfId="16"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="17"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="18"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="19"/>
     <cellStyle name="Normal 45" xfId="20"/>
@@ -6967,8 +6980,8 @@
   </sheetPr>
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11963,8 +11976,8 @@
   </sheetPr>
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -16386,10 +16399,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:IV29"/>
+  <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6:X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -18496,6 +18509,9 @@
         <v>33</v>
       </c>
     </row>
+    <row r="33" spans="18:18" ht="16.5">
+      <c r="R33" s="168"/>
+    </row>
   </sheetData>
   <mergeCells count="107">
     <mergeCell ref="A1:W1"/>
@@ -18618,8 +18634,8 @@
   </sheetPr>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -20983,8 +20999,8 @@
   </sheetPr>
   <dimension ref="A1:IV32"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/JO1066 mold analysis 0213.xlsx
+++ b/JO1066 mold analysis 0213.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="739" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="739" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="JO1066 rubber" sheetId="102" r:id="rId1"/>
@@ -2823,6 +2823,9 @@
     <xf numFmtId="0" fontId="44" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="54" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="29" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2963,9 +2966,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="11" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="54" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3921,31 +3921,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
     </row>
     <row r="2" spans="1:23" s="107" customFormat="1" ht="23.25">
       <c r="A2" s="2"/>
@@ -4001,19 +4001,19 @@
       <c r="A4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="6"/>
@@ -5925,34 +5925,34 @@
       <c r="V29" s="82"/>
     </row>
     <row r="30" spans="1:256">
-      <c r="J30" s="123">
+      <c r="J30" s="124">
         <v>0</v>
       </c>
-      <c r="K30" s="123">
-        <v>1</v>
-      </c>
-      <c r="L30" s="123">
+      <c r="K30" s="124">
+        <v>1</v>
+      </c>
+      <c r="L30" s="124">
         <v>2</v>
       </c>
-      <c r="M30" s="123">
+      <c r="M30" s="124">
         <v>4</v>
       </c>
-      <c r="N30" s="123">
+      <c r="N30" s="124">
         <v>5</v>
       </c>
-      <c r="O30" s="123">
+      <c r="O30" s="124">
         <v>5</v>
       </c>
-      <c r="P30" s="123">
+      <c r="P30" s="124">
         <v>5</v>
       </c>
-      <c r="Q30" s="123">
+      <c r="Q30" s="124">
         <v>4</v>
       </c>
-      <c r="R30" s="123">
+      <c r="R30" s="124">
         <v>2</v>
       </c>
-      <c r="S30" s="123">
+      <c r="S30" s="124">
         <v>2</v>
       </c>
       <c r="T30" s="83">
@@ -6980,8 +6980,8 @@
   </sheetPr>
   <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -7564,31 +7564,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
     </row>
     <row r="2" spans="1:23" s="107" customFormat="1" ht="23.25">
       <c r="A2" s="84"/>
@@ -7644,19 +7644,19 @@
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="85"/>
@@ -9988,31 +9988,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="23.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
     </row>
     <row r="2" spans="1:63" s="3" customFormat="1" ht="23.25">
       <c r="A2" s="84"/>
@@ -10068,19 +10068,19 @@
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="4"/>
       <c r="O4" s="85"/>
       <c r="P4" s="4" t="s">
@@ -11976,8 +11976,8 @@
   </sheetPr>
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y16" sqref="Y14:Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -12560,31 +12560,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
     </row>
     <row r="2" spans="1:23" s="107" customFormat="1" ht="23.25">
       <c r="A2" s="98"/>
@@ -12640,19 +12640,19 @@
       <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="99"/>
@@ -16401,8 +16401,8 @@
   </sheetPr>
   <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6:X24"/>
+    <sheetView topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -16985,31 +16985,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
     </row>
     <row r="2" spans="1:23" s="107" customFormat="1" ht="23.25">
       <c r="A2" s="84"/>
@@ -17065,19 +17065,19 @@
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="85"/>
@@ -17199,39 +17199,39 @@
         <f>SUM(J7:V7)</f>
         <v>5</v>
       </c>
-      <c r="D7" s="159">
-        <v>1</v>
-      </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="159">
-        <v>1</v>
-      </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="159">
-        <v>1</v>
-      </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="159">
-        <v>1</v>
-      </c>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="159">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="159">
-        <v>1</v>
-      </c>
-      <c r="T7" s="161"/>
-      <c r="U7" s="159">
-        <v>1</v>
-      </c>
-      <c r="V7" s="161"/>
+      <c r="D7" s="160">
+        <v>1</v>
+      </c>
+      <c r="E7" s="161"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="160">
+        <v>1</v>
+      </c>
+      <c r="H7" s="161"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="160">
+        <v>1</v>
+      </c>
+      <c r="K7" s="161"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="160">
+        <v>1</v>
+      </c>
+      <c r="N7" s="161"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="160">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="160">
+        <v>1</v>
+      </c>
+      <c r="T7" s="162"/>
+      <c r="U7" s="160">
+        <v>1</v>
+      </c>
+      <c r="V7" s="162"/>
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23">
@@ -17243,46 +17243,46 @@
         <f>SUM(C7)</f>
         <v>5</v>
       </c>
-      <c r="D8" s="155">
+      <c r="D8" s="156">
         <f t="shared" ref="D8:U8" si="0">SUM(D7)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="155">
+      <c r="E8" s="157"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="155">
+      <c r="H8" s="157"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="155">
+      <c r="K8" s="157"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N8" s="156"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="155">
+      <c r="N8" s="157"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="155">
+      <c r="Q8" s="157"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T8" s="157"/>
-      <c r="U8" s="155">
+      <c r="T8" s="158"/>
+      <c r="U8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V8" s="157"/>
+      <c r="V8" s="158"/>
       <c r="W8" s="23">
         <f>C8*26*100*0.8</f>
         <v>10400</v>
@@ -17365,46 +17365,46 @@
         <f t="shared" ref="C10" si="1">SUM(C9:C9)</f>
         <v>42577</v>
       </c>
-      <c r="D10" s="129">
+      <c r="D10" s="130">
         <f>D9+E9+F9</f>
         <v>4235</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="129">
+      <c r="E10" s="131"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="130">
         <f>G9+H9+I9</f>
         <v>6534</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="129">
+      <c r="H10" s="131"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="130">
         <f>J9+K9+L9</f>
         <v>11090</v>
       </c>
-      <c r="K10" s="130"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="129">
+      <c r="K10" s="131"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="130">
         <f>M9+N9+O9</f>
         <v>15749</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="129">
+      <c r="N10" s="131"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="130">
         <f>P9+Q9+R9</f>
         <v>11377</v>
       </c>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="129">
+      <c r="Q10" s="131"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="130">
         <f>S9+T9</f>
         <v>3601</v>
       </c>
-      <c r="T10" s="130"/>
-      <c r="U10" s="129">
+      <c r="T10" s="131"/>
+      <c r="U10" s="130">
         <f>U9+V9</f>
         <v>760</v>
       </c>
-      <c r="V10" s="130"/>
+      <c r="V10" s="131"/>
       <c r="W10" s="32"/>
     </row>
     <row r="11" spans="1:23" s="109" customFormat="1">
@@ -17441,49 +17441,49 @@
         <f t="shared" ref="C12:V12" si="2">C9</f>
         <v>42577</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="133">
         <f>D10</f>
         <v>4235</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="132">
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="133">
         <f>G10</f>
         <v>6534</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="132">
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="133">
         <f>J10</f>
         <v>11090</v>
       </c>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="132">
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="133">
         <f>M10</f>
         <v>15749</v>
       </c>
-      <c r="N12" s="133"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="132">
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="133">
         <f>P10</f>
         <v>11377</v>
       </c>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="129">
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="130">
         <f t="shared" si="2"/>
         <v>1834</v>
       </c>
-      <c r="T12" s="130">
+      <c r="T12" s="131">
         <f t="shared" si="2"/>
         <v>1767</v>
       </c>
-      <c r="U12" s="129">
+      <c r="U12" s="130">
         <f t="shared" si="2"/>
         <v>560</v>
       </c>
-      <c r="V12" s="130">
+      <c r="V12" s="131">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
@@ -17495,49 +17495,49 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="152">
+      <c r="D13" s="153">
         <f>D12/D8/650</f>
         <v>6.5153846153846153</v>
       </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="152">
+      <c r="E13" s="154"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="153">
         <f>G12/G8/650</f>
         <v>10.052307692307693</v>
       </c>
-      <c r="H13" s="153"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="152">
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="153">
         <f>J12/J8/650</f>
         <v>17.061538461538461</v>
       </c>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="152">
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="153">
         <f>M12/M8/650</f>
         <v>24.229230769230771</v>
       </c>
-      <c r="N13" s="153"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="152">
+      <c r="N13" s="154"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="153">
         <f>P12/P8/650</f>
         <v>17.503076923076922</v>
       </c>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="150">
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="151">
         <f>S12/S8/650</f>
         <v>2.8215384615384616</v>
       </c>
-      <c r="T13" s="151" t="e">
+      <c r="T13" s="152" t="e">
         <f t="shared" ref="T13:V13" si="3">T12/T8/55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="150">
+      <c r="U13" s="151">
         <f>U12/U8/650</f>
         <v>0.86153846153846159</v>
       </c>
-      <c r="V13" s="151" t="e">
+      <c r="V13" s="152" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -17549,61 +17549,61 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="126">
+      <c r="D14" s="127">
         <v>43518</v>
       </c>
-      <c r="E14" s="127">
+      <c r="E14" s="128">
         <v>43518</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="129">
         <v>43518</v>
       </c>
-      <c r="G14" s="126">
+      <c r="G14" s="127">
         <v>43518</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="128">
         <v>43518</v>
       </c>
-      <c r="I14" s="128">
+      <c r="I14" s="129">
         <v>43518</v>
       </c>
-      <c r="J14" s="126">
+      <c r="J14" s="127">
         <v>43518</v>
       </c>
-      <c r="K14" s="127">
+      <c r="K14" s="128">
         <v>43518</v>
       </c>
-      <c r="L14" s="128">
+      <c r="L14" s="129">
         <v>43518</v>
       </c>
-      <c r="M14" s="126">
+      <c r="M14" s="127">
         <v>43518</v>
       </c>
-      <c r="N14" s="127">
+      <c r="N14" s="128">
         <v>43518</v>
       </c>
-      <c r="O14" s="128">
+      <c r="O14" s="129">
         <v>43518</v>
       </c>
-      <c r="P14" s="126">
+      <c r="P14" s="127">
         <v>43518</v>
       </c>
-      <c r="Q14" s="127">
+      <c r="Q14" s="128">
         <v>43518</v>
       </c>
-      <c r="R14" s="128">
+      <c r="R14" s="129">
         <v>43518</v>
       </c>
-      <c r="S14" s="124">
+      <c r="S14" s="125">
         <v>43518</v>
       </c>
-      <c r="T14" s="131">
+      <c r="T14" s="132">
         <v>43518</v>
       </c>
-      <c r="U14" s="124">
+      <c r="U14" s="125">
         <v>43518</v>
       </c>
-      <c r="V14" s="131">
+      <c r="V14" s="132">
         <v>43518</v>
       </c>
       <c r="W14" s="43"/>
@@ -17617,79 +17617,79 @@
         <f>MAX(J15:V15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="127">
         <f t="shared" ref="D15:I15" si="4">D14+D13+D13/6</f>
         <v>43525.601282051284</v>
       </c>
-      <c r="E15" s="127">
+      <c r="E15" s="128">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="129">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="G15" s="126">
+      <c r="G15" s="127">
         <f t="shared" si="4"/>
         <v>43529.727692307693</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="128">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="I15" s="128">
+      <c r="I15" s="129">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="J15" s="147">
+      <c r="J15" s="148">
         <f>J14+J13+J13/6</f>
         <v>43537.90512820513</v>
       </c>
-      <c r="K15" s="148">
+      <c r="K15" s="149">
         <f t="shared" ref="K15:V15" si="5">K14+K13+K13/6</f>
         <v>43518</v>
       </c>
-      <c r="L15" s="149">
+      <c r="L15" s="150">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="M15" s="147">
+      <c r="M15" s="148">
         <f t="shared" si="5"/>
         <v>43546.26743589744</v>
       </c>
-      <c r="N15" s="148">
+      <c r="N15" s="149">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="O15" s="149">
+      <c r="O15" s="150">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="P15" s="147">
+      <c r="P15" s="148">
         <f t="shared" si="5"/>
         <v>43538.42025641026</v>
       </c>
-      <c r="Q15" s="148">
+      <c r="Q15" s="149">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="R15" s="149">
+      <c r="R15" s="150">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="S15" s="124">
+      <c r="S15" s="125">
         <f t="shared" si="5"/>
         <v>43521.291794871795</v>
       </c>
-      <c r="T15" s="131" t="e">
+      <c r="T15" s="132" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="124">
+      <c r="U15" s="125">
         <f t="shared" si="5"/>
         <v>43519.005128205128</v>
       </c>
-      <c r="V15" s="131" t="e">
+      <c r="V15" s="132" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -17701,61 +17701,61 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="126">
+      <c r="D16" s="127">
         <v>43549</v>
       </c>
-      <c r="E16" s="127">
+      <c r="E16" s="128">
         <v>43549</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="129">
         <v>43549</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="127">
         <v>43549</v>
       </c>
-      <c r="H16" s="127">
+      <c r="H16" s="128">
         <v>43549</v>
       </c>
-      <c r="I16" s="128">
+      <c r="I16" s="129">
         <v>43549</v>
       </c>
-      <c r="J16" s="126">
+      <c r="J16" s="127">
         <v>43549</v>
       </c>
-      <c r="K16" s="127">
+      <c r="K16" s="128">
         <v>43549</v>
       </c>
-      <c r="L16" s="128">
+      <c r="L16" s="129">
         <v>43549</v>
       </c>
-      <c r="M16" s="126">
+      <c r="M16" s="127">
         <v>43549</v>
       </c>
-      <c r="N16" s="127">
+      <c r="N16" s="128">
         <v>43549</v>
       </c>
-      <c r="O16" s="128">
+      <c r="O16" s="129">
         <v>43549</v>
       </c>
-      <c r="P16" s="126">
+      <c r="P16" s="127">
         <v>43549</v>
       </c>
-      <c r="Q16" s="127">
+      <c r="Q16" s="128">
         <v>43549</v>
       </c>
-      <c r="R16" s="128">
+      <c r="R16" s="129">
         <v>43549</v>
       </c>
-      <c r="S16" s="124">
+      <c r="S16" s="125">
         <v>43549</v>
       </c>
-      <c r="T16" s="131">
+      <c r="T16" s="132">
         <v>43549</v>
       </c>
-      <c r="U16" s="124">
+      <c r="U16" s="125">
         <v>43549</v>
       </c>
-      <c r="V16" s="131">
+      <c r="V16" s="132">
         <v>43549</v>
       </c>
       <c r="W16" s="43"/>
@@ -17794,27 +17794,27 @@
         <f>D18+G18+J18+M18+P18+S18+U18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="146">
+      <c r="D18" s="139"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="147">
         <v>2</v>
       </c>
-      <c r="I18" s="139"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="141"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="140"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="142"/>
       <c r="W18" s="60"/>
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
@@ -18059,46 +18059,46 @@
         <f>C8+C18</f>
         <v>5</v>
       </c>
-      <c r="D19" s="142">
+      <c r="D19" s="143">
         <f>D8+D18</f>
         <v>1</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="142">
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="143">
         <f>G8+G18</f>
         <v>1</v>
       </c>
-      <c r="H19" s="143"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="142">
+      <c r="H19" s="144"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="143">
         <f>J8+J18</f>
         <v>1</v>
       </c>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="142">
+      <c r="K19" s="144"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="143">
         <f>M8+M18</f>
         <v>1</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="142">
+      <c r="N19" s="144"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="143">
         <f>P8+P18</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="142">
+      <c r="Q19" s="144"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="143">
         <f>S8+S18</f>
         <v>1</v>
       </c>
-      <c r="T19" s="143"/>
-      <c r="U19" s="145">
+      <c r="T19" s="144"/>
+      <c r="U19" s="146">
         <f>V8+V18</f>
         <v>0</v>
       </c>
-      <c r="V19" s="145"/>
+      <c r="V19" s="146"/>
       <c r="W19" s="67"/>
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
@@ -18342,31 +18342,31 @@
         <v>23</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134">
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="135">
         <f>F12-14*F7*110</f>
         <v>0</v>
       </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="133">
+      <c r="G20" s="133"/>
+      <c r="H20" s="134">
         <f>H12-14*H7*110</f>
         <v>0</v>
       </c>
-      <c r="I20" s="134"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="137"/>
-      <c r="S20" s="129"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="130"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="137"/>
+      <c r="R20" s="138"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="131"/>
       <c r="W20" s="43"/>
     </row>
     <row r="21" spans="1:256" s="110" customFormat="1">
@@ -18375,29 +18375,29 @@
       </c>
       <c r="B21" s="73"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="128">
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129">
         <v>43535</v>
       </c>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127">
+      <c r="G21" s="127"/>
+      <c r="H21" s="128">
         <v>43535</v>
       </c>
-      <c r="I21" s="128"/>
-      <c r="J21" s="126"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="131"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="129"/>
+      <c r="P21" s="127"/>
+      <c r="Q21" s="128"/>
+      <c r="R21" s="129"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="132"/>
       <c r="W21" s="43"/>
     </row>
     <row r="22" spans="1:256">
@@ -18406,31 +18406,31 @@
       </c>
       <c r="B22" s="76"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134" t="e">
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135" t="e">
         <f>F20/F19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="133" t="e">
+      <c r="G22" s="133"/>
+      <c r="H22" s="134" t="e">
         <f>H20/H19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="133"/>
-      <c r="R22" s="134"/>
-      <c r="S22" s="129"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="130"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="131"/>
       <c r="W22" s="43"/>
     </row>
     <row r="23" spans="1:256" s="110" customFormat="1">
@@ -18442,31 +18442,31 @@
         <f>MAX(J23:U23)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="125" t="e">
+      <c r="D23" s="125"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="126" t="e">
         <f>F21+F22+F22/6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="124"/>
-      <c r="H23" s="131" t="e">
+      <c r="G23" s="125"/>
+      <c r="H23" s="132" t="e">
         <f>H21+H22+H22/6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="125"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="124"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="131"/>
-      <c r="R23" s="125"/>
-      <c r="S23" s="126"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="128"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="132"/>
+      <c r="R23" s="126"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="129"/>
       <c r="W23" s="43"/>
     </row>
     <row r="24" spans="1:256" s="110" customFormat="1">
@@ -18475,29 +18475,29 @@
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="128">
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129">
         <v>43549</v>
       </c>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127">
+      <c r="G24" s="127"/>
+      <c r="H24" s="128">
         <v>43549</v>
       </c>
-      <c r="I24" s="128"/>
-      <c r="J24" s="126"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="125"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="129"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="129"/>
+      <c r="P24" s="127"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="129"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="126"/>
       <c r="W24" s="43"/>
     </row>
     <row r="26" spans="1:256" hidden="1"/>
@@ -18510,7 +18510,7 @@
       </c>
     </row>
     <row r="33" spans="18:18" ht="16.5">
-      <c r="R33" s="168"/>
+      <c r="R33" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="107">
@@ -18634,8 +18634,8 @@
   </sheetPr>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19218,31 +19218,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
     </row>
     <row r="2" spans="1:23" s="107" customFormat="1" ht="23.25">
       <c r="A2" s="86"/>
@@ -19298,19 +19298,19 @@
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="87"/>
@@ -19432,39 +19432,39 @@
         <f>SUM(J7:V7)</f>
         <v>5</v>
       </c>
-      <c r="D7" s="159">
-        <v>1</v>
-      </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="159">
-        <v>1</v>
-      </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="159">
-        <v>1</v>
-      </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="159">
-        <v>1</v>
-      </c>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="159">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="159">
-        <v>1</v>
-      </c>
-      <c r="T7" s="161"/>
-      <c r="U7" s="159">
-        <v>1</v>
-      </c>
-      <c r="V7" s="161"/>
+      <c r="D7" s="160">
+        <v>1</v>
+      </c>
+      <c r="E7" s="161"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="160">
+        <v>1</v>
+      </c>
+      <c r="H7" s="161"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="160">
+        <v>1</v>
+      </c>
+      <c r="K7" s="161"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="160">
+        <v>1</v>
+      </c>
+      <c r="N7" s="161"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="160">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="160">
+        <v>1</v>
+      </c>
+      <c r="T7" s="162"/>
+      <c r="U7" s="160">
+        <v>1</v>
+      </c>
+      <c r="V7" s="162"/>
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23">
@@ -19476,46 +19476,46 @@
         <f>SUM(C7)</f>
         <v>5</v>
       </c>
-      <c r="D8" s="155">
+      <c r="D8" s="156">
         <f t="shared" ref="D8:U8" si="0">SUM(D7)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="155">
+      <c r="E8" s="157"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="155">
+      <c r="H8" s="157"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="155">
+      <c r="K8" s="157"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N8" s="156"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="155">
+      <c r="N8" s="157"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="155">
+      <c r="Q8" s="157"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T8" s="157"/>
-      <c r="U8" s="155">
+      <c r="T8" s="158"/>
+      <c r="U8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V8" s="157"/>
+      <c r="V8" s="158"/>
       <c r="W8" s="23">
         <f>C8*26*100*0.8</f>
         <v>10400</v>
@@ -19598,46 +19598,46 @@
         <f t="shared" ref="C10" si="1">SUM(C9:C9)</f>
         <v>100479</v>
       </c>
-      <c r="D10" s="129">
+      <c r="D10" s="130">
         <f>D9+E9+F9</f>
         <v>9077</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="129">
+      <c r="E10" s="131"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="130">
         <f>G9+H9+I9</f>
         <v>14382</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="129">
+      <c r="H10" s="131"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="130">
         <f>J9+K9+L9</f>
         <v>20188</v>
       </c>
-      <c r="K10" s="130"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="129">
+      <c r="K10" s="131"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="130">
         <f>M9+N9+O9</f>
         <v>25501</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="129">
+      <c r="N10" s="131"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="130">
         <f>P9+Q9+R9</f>
         <v>21870</v>
       </c>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="129">
+      <c r="Q10" s="131"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="130">
         <f>S9+T9</f>
         <v>7325</v>
       </c>
-      <c r="T10" s="130"/>
-      <c r="U10" s="129">
+      <c r="T10" s="131"/>
+      <c r="U10" s="130">
         <f>U9+V9</f>
         <v>2136</v>
       </c>
-      <c r="V10" s="130"/>
+      <c r="V10" s="131"/>
       <c r="W10" s="32"/>
     </row>
     <row r="11" spans="1:23" s="109" customFormat="1">
@@ -19674,49 +19674,49 @@
         <f t="shared" ref="C12:V12" si="2">C9</f>
         <v>100479</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="133">
         <f>D10</f>
         <v>9077</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="132">
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="133">
         <f>G10</f>
         <v>14382</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="132">
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="133">
         <f>J10</f>
         <v>20188</v>
       </c>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="132">
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="133">
         <f>M10</f>
         <v>25501</v>
       </c>
-      <c r="N12" s="133"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="132">
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="133">
         <f>P10</f>
         <v>21870</v>
       </c>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="129">
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="130">
         <f t="shared" si="2"/>
         <v>3529</v>
       </c>
-      <c r="T12" s="130">
+      <c r="T12" s="131">
         <f t="shared" si="2"/>
         <v>3796</v>
       </c>
-      <c r="U12" s="129">
+      <c r="U12" s="130">
         <f t="shared" si="2"/>
         <v>1603</v>
       </c>
-      <c r="V12" s="130">
+      <c r="V12" s="131">
         <f t="shared" si="2"/>
         <v>533</v>
       </c>
@@ -19728,49 +19728,49 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="152">
+      <c r="D13" s="153">
         <f>D12/D8/550</f>
         <v>16.503636363636364</v>
       </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="152">
+      <c r="E13" s="154"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="153">
         <f>G12/G8/550</f>
         <v>26.149090909090908</v>
       </c>
-      <c r="H13" s="153"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="152">
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="153">
         <f>J12/J8/550</f>
         <v>36.705454545454543</v>
       </c>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="152">
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="153">
         <f>M12/M8/550</f>
         <v>46.365454545454547</v>
       </c>
-      <c r="N13" s="153"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="152">
+      <c r="N13" s="154"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="153">
         <f>P12/P8/550</f>
         <v>39.763636363636365</v>
       </c>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="150">
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="151">
         <f>S12/S8/550</f>
         <v>6.416363636363636</v>
       </c>
-      <c r="T13" s="151" t="e">
+      <c r="T13" s="152" t="e">
         <f t="shared" ref="T13:V13" si="3">T12/T8/55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="150">
+      <c r="U13" s="151">
         <f>U12/U8/550</f>
         <v>2.9145454545454546</v>
       </c>
-      <c r="V13" s="151" t="e">
+      <c r="V13" s="152" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -19782,61 +19782,61 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="126">
+      <c r="D14" s="127">
         <v>43518</v>
       </c>
-      <c r="E14" s="127">
+      <c r="E14" s="128">
         <v>43518</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="129">
         <v>43518</v>
       </c>
-      <c r="G14" s="126">
+      <c r="G14" s="127">
         <v>43518</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="128">
         <v>43518</v>
       </c>
-      <c r="I14" s="128">
+      <c r="I14" s="129">
         <v>43518</v>
       </c>
-      <c r="J14" s="126">
+      <c r="J14" s="127">
         <v>43518</v>
       </c>
-      <c r="K14" s="127">
+      <c r="K14" s="128">
         <v>43518</v>
       </c>
-      <c r="L14" s="128">
+      <c r="L14" s="129">
         <v>43518</v>
       </c>
-      <c r="M14" s="126">
+      <c r="M14" s="127">
         <v>43518</v>
       </c>
-      <c r="N14" s="127">
+      <c r="N14" s="128">
         <v>43518</v>
       </c>
-      <c r="O14" s="128">
+      <c r="O14" s="129">
         <v>43518</v>
       </c>
-      <c r="P14" s="126">
+      <c r="P14" s="127">
         <v>43518</v>
       </c>
-      <c r="Q14" s="127">
+      <c r="Q14" s="128">
         <v>43518</v>
       </c>
-      <c r="R14" s="128">
+      <c r="R14" s="129">
         <v>43518</v>
       </c>
-      <c r="S14" s="124">
+      <c r="S14" s="125">
         <v>43518</v>
       </c>
-      <c r="T14" s="131">
+      <c r="T14" s="132">
         <v>43518</v>
       </c>
-      <c r="U14" s="124">
+      <c r="U14" s="125">
         <v>43518</v>
       </c>
-      <c r="V14" s="131">
+      <c r="V14" s="132">
         <v>43518</v>
       </c>
       <c r="W14" s="43"/>
@@ -19850,79 +19850,79 @@
         <f>MAX(J15:V15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="127">
         <f t="shared" ref="D15:I15" si="4">D14+D13+D13/6</f>
         <v>43537.254242424242</v>
       </c>
-      <c r="E15" s="127">
+      <c r="E15" s="128">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="129">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="G15" s="126">
+      <c r="G15" s="127">
         <f>G14+G13+G13/6</f>
         <v>43548.507272727278</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="128">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="I15" s="128">
+      <c r="I15" s="129">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="J15" s="162">
+      <c r="J15" s="163">
         <f>J14+J13+J13/6</f>
         <v>43560.823030303029</v>
       </c>
-      <c r="K15" s="163">
+      <c r="K15" s="164">
         <f t="shared" ref="K15:V15" si="5">K14+K13+K13/6</f>
         <v>43518</v>
       </c>
-      <c r="L15" s="164">
+      <c r="L15" s="165">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="M15" s="162">
+      <c r="M15" s="163">
         <f t="shared" si="5"/>
         <v>43572.093030303033</v>
       </c>
-      <c r="N15" s="163">
+      <c r="N15" s="164">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="O15" s="164">
+      <c r="O15" s="165">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="P15" s="162">
+      <c r="P15" s="163">
         <f t="shared" si="5"/>
         <v>43564.390909090907</v>
       </c>
-      <c r="Q15" s="163">
+      <c r="Q15" s="164">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="R15" s="164">
+      <c r="R15" s="165">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="S15" s="124">
+      <c r="S15" s="125">
         <f t="shared" si="5"/>
         <v>43525.485757575763</v>
       </c>
-      <c r="T15" s="131" t="e">
+      <c r="T15" s="132" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="124">
+      <c r="U15" s="125">
         <f t="shared" si="5"/>
         <v>43521.400303030299</v>
       </c>
-      <c r="V15" s="131" t="e">
+      <c r="V15" s="132" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -19934,61 +19934,61 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="126">
+      <c r="D16" s="127">
         <v>43549</v>
       </c>
-      <c r="E16" s="127">
+      <c r="E16" s="128">
         <v>43549</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="129">
         <v>43549</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="127">
         <v>43549</v>
       </c>
-      <c r="H16" s="127">
+      <c r="H16" s="128">
         <v>43549</v>
       </c>
-      <c r="I16" s="128">
+      <c r="I16" s="129">
         <v>43549</v>
       </c>
-      <c r="J16" s="126">
+      <c r="J16" s="127">
         <v>43549</v>
       </c>
-      <c r="K16" s="127">
+      <c r="K16" s="128">
         <v>43549</v>
       </c>
-      <c r="L16" s="128">
+      <c r="L16" s="129">
         <v>43549</v>
       </c>
-      <c r="M16" s="126">
+      <c r="M16" s="127">
         <v>43549</v>
       </c>
-      <c r="N16" s="127">
+      <c r="N16" s="128">
         <v>43549</v>
       </c>
-      <c r="O16" s="128">
+      <c r="O16" s="129">
         <v>43549</v>
       </c>
-      <c r="P16" s="126">
+      <c r="P16" s="127">
         <v>43549</v>
       </c>
-      <c r="Q16" s="127">
+      <c r="Q16" s="128">
         <v>43549</v>
       </c>
-      <c r="R16" s="128">
+      <c r="R16" s="129">
         <v>43549</v>
       </c>
-      <c r="S16" s="124">
+      <c r="S16" s="125">
         <v>43549</v>
       </c>
-      <c r="T16" s="131">
+      <c r="T16" s="132">
         <v>43549</v>
       </c>
-      <c r="U16" s="124">
+      <c r="U16" s="125">
         <v>43549</v>
       </c>
-      <c r="V16" s="131">
+      <c r="V16" s="132">
         <v>43549</v>
       </c>
       <c r="W16" s="43"/>
@@ -20027,45 +20027,45 @@
         <f>D18+G18+J18+M18+P18+S18+U18</f>
         <v>4</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="146">
+      <c r="D18" s="139"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="147">
         <v>2</v>
       </c>
-      <c r="I18" s="139"/>
-      <c r="J18" s="138">
-        <v>1</v>
-      </c>
-      <c r="K18" s="146">
+      <c r="I18" s="140"/>
+      <c r="J18" s="139">
+        <v>1</v>
+      </c>
+      <c r="K18" s="147">
         <v>2</v>
       </c>
-      <c r="L18" s="139">
+      <c r="L18" s="140">
         <v>3</v>
       </c>
-      <c r="M18" s="138">
+      <c r="M18" s="139">
         <v>2</v>
       </c>
-      <c r="N18" s="146">
+      <c r="N18" s="147">
         <v>6</v>
       </c>
-      <c r="O18" s="139">
+      <c r="O18" s="140">
         <v>2</v>
       </c>
-      <c r="P18" s="138">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="146">
+      <c r="P18" s="139">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="147">
         <v>3</v>
       </c>
-      <c r="R18" s="139">
+      <c r="R18" s="140">
         <v>2</v>
       </c>
-      <c r="S18" s="138"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="141"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="142"/>
       <c r="W18" s="60"/>
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
@@ -20310,46 +20310,46 @@
         <f>C8+C18</f>
         <v>9</v>
       </c>
-      <c r="D19" s="142">
+      <c r="D19" s="143">
         <f>D8+D18</f>
         <v>1</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="142">
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="143">
         <f>G8+G18</f>
         <v>1</v>
       </c>
-      <c r="H19" s="143"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="142">
+      <c r="H19" s="144"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="143">
         <f>J8+J18</f>
         <v>2</v>
       </c>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="142">
+      <c r="K19" s="144"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="143">
         <f>M8+M18</f>
         <v>3</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="142">
+      <c r="N19" s="144"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="143">
         <f>P8+P18</f>
         <v>2</v>
       </c>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="142">
+      <c r="Q19" s="144"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="143">
         <f>S8+S18</f>
         <v>1</v>
       </c>
-      <c r="T19" s="143"/>
-      <c r="U19" s="145">
+      <c r="T19" s="144"/>
+      <c r="U19" s="146">
         <f>V8+V18</f>
         <v>0</v>
       </c>
-      <c r="V19" s="145"/>
+      <c r="V19" s="146"/>
       <c r="W19" s="67"/>
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
@@ -20593,58 +20593,58 @@
         <v>23</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134">
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="135">
         <f>F12-14*F7*110</f>
         <v>0</v>
       </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="133">
+      <c r="G20" s="133"/>
+      <c r="H20" s="134">
         <f>H12-14*H7*110</f>
         <v>0</v>
       </c>
-      <c r="I20" s="134"/>
-      <c r="J20" s="132">
+      <c r="I20" s="135"/>
+      <c r="J20" s="133">
         <f>J12-14*J7*550</f>
         <v>12488</v>
       </c>
-      <c r="K20" s="133">
+      <c r="K20" s="134">
         <f t="shared" ref="K20:R20" si="6">K12-14*K7*110</f>
         <v>0</v>
       </c>
-      <c r="L20" s="134">
+      <c r="L20" s="135">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M20" s="132">
+      <c r="M20" s="133">
         <f>M12-14*M7*550</f>
         <v>17801</v>
       </c>
-      <c r="N20" s="133">
+      <c r="N20" s="134">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O20" s="134">
+      <c r="O20" s="135">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P20" s="135">
+      <c r="P20" s="136">
         <f>P12-14*P7*550</f>
         <v>14170</v>
       </c>
-      <c r="Q20" s="136">
+      <c r="Q20" s="137">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="137">
+      <c r="R20" s="138">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S20" s="129"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="131"/>
       <c r="W20" s="43"/>
     </row>
     <row r="21" spans="1:256" s="110" customFormat="1">
@@ -20653,47 +20653,47 @@
       </c>
       <c r="B21" s="73"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="128">
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129">
         <v>43535</v>
       </c>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127">
+      <c r="G21" s="127"/>
+      <c r="H21" s="128">
         <v>43535</v>
       </c>
-      <c r="I21" s="128"/>
-      <c r="J21" s="126">
+      <c r="I21" s="129"/>
+      <c r="J21" s="127">
         <v>43535</v>
       </c>
-      <c r="K21" s="127">
+      <c r="K21" s="128">
         <v>43535</v>
       </c>
-      <c r="L21" s="128">
+      <c r="L21" s="129">
         <v>43535</v>
       </c>
-      <c r="M21" s="126">
+      <c r="M21" s="127">
         <v>43535</v>
       </c>
-      <c r="N21" s="127">
+      <c r="N21" s="128">
         <v>43535</v>
       </c>
-      <c r="O21" s="128">
+      <c r="O21" s="129">
         <v>43535</v>
       </c>
-      <c r="P21" s="126">
+      <c r="P21" s="127">
         <v>43535</v>
       </c>
-      <c r="Q21" s="127">
+      <c r="Q21" s="128">
         <v>43535</v>
       </c>
-      <c r="R21" s="128">
+      <c r="R21" s="129">
         <v>43535</v>
       </c>
-      <c r="S21" s="124"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="131"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="132"/>
       <c r="W21" s="43"/>
     </row>
     <row r="22" spans="1:256">
@@ -20702,58 +20702,58 @@
       </c>
       <c r="B22" s="76"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134" t="e">
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135" t="e">
         <f>F20/F19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="133" t="e">
+      <c r="G22" s="133"/>
+      <c r="H22" s="134" t="e">
         <f>H20/H19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="134"/>
-      <c r="J22" s="132">
+      <c r="I22" s="135"/>
+      <c r="J22" s="133">
         <f>J20/J19/550</f>
         <v>11.352727272727273</v>
       </c>
-      <c r="K22" s="133" t="e">
+      <c r="K22" s="134" t="e">
         <f>K20/K19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="134" t="e">
+      <c r="L22" s="135" t="e">
         <f>L20/L19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="132">
+      <c r="M22" s="133">
         <f>M20/M19/550</f>
         <v>10.788484848484849</v>
       </c>
-      <c r="N22" s="133" t="e">
+      <c r="N22" s="134" t="e">
         <f t="shared" ref="N22:R22" si="7">N20/N19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="134" t="e">
+      <c r="O22" s="135" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="132">
+      <c r="P22" s="133">
         <f>P20/P19/550</f>
         <v>12.881818181818181</v>
       </c>
-      <c r="Q22" s="133" t="e">
+      <c r="Q22" s="134" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="134" t="e">
+      <c r="R22" s="135" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" s="129"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="131"/>
       <c r="W22" s="43"/>
     </row>
     <row r="23" spans="1:256" s="110" customFormat="1">
@@ -20765,58 +20765,58 @@
         <f>MAX(J23:U23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="125" t="e">
+      <c r="D23" s="125"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="126" t="e">
         <f>F21+F22+F22/6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="124"/>
-      <c r="H23" s="131" t="e">
+      <c r="G23" s="125"/>
+      <c r="H23" s="132" t="e">
         <f>H21+H22+H22/6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="125"/>
-      <c r="J23" s="124">
+      <c r="I23" s="126"/>
+      <c r="J23" s="125">
         <f>J21+J22+J22/6</f>
         <v>43548.24484848485</v>
       </c>
-      <c r="K23" s="131" t="e">
+      <c r="K23" s="132" t="e">
         <f>K21+K22+K22/6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="125" t="e">
+      <c r="L23" s="126" t="e">
         <f>L21+L22+L22/6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="124">
+      <c r="M23" s="125">
         <f t="shared" ref="M23:R23" si="8">M21+M22+M22/6</f>
         <v>43547.586565656566</v>
       </c>
-      <c r="N23" s="131" t="e">
+      <c r="N23" s="132" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="125" t="e">
+      <c r="O23" s="126" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="124">
+      <c r="P23" s="125">
         <f t="shared" si="8"/>
         <v>43550.028787878793</v>
       </c>
-      <c r="Q23" s="131" t="e">
+      <c r="Q23" s="132" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="125" t="e">
+      <c r="R23" s="126" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="126"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="128"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="129"/>
       <c r="W23" s="43"/>
     </row>
     <row r="24" spans="1:256" s="110" customFormat="1">
@@ -20825,47 +20825,47 @@
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="128">
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129">
         <v>43549</v>
       </c>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127">
+      <c r="G24" s="127"/>
+      <c r="H24" s="128">
         <v>43549</v>
       </c>
-      <c r="I24" s="128"/>
-      <c r="J24" s="126">
+      <c r="I24" s="129"/>
+      <c r="J24" s="127">
         <v>43549</v>
       </c>
-      <c r="K24" s="127">
+      <c r="K24" s="128">
         <v>43549</v>
       </c>
-      <c r="L24" s="128">
+      <c r="L24" s="129">
         <v>43549</v>
       </c>
-      <c r="M24" s="126">
+      <c r="M24" s="127">
         <v>43549</v>
       </c>
-      <c r="N24" s="127">
+      <c r="N24" s="128">
         <v>43549</v>
       </c>
-      <c r="O24" s="128">
+      <c r="O24" s="129">
         <v>43549</v>
       </c>
-      <c r="P24" s="126">
+      <c r="P24" s="127">
         <v>43549</v>
       </c>
-      <c r="Q24" s="127">
+      <c r="Q24" s="128">
         <v>43549</v>
       </c>
-      <c r="R24" s="128">
+      <c r="R24" s="129">
         <v>43549</v>
       </c>
-      <c r="S24" s="124"/>
-      <c r="T24" s="125"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="125"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="126"/>
       <c r="W24" s="43"/>
     </row>
     <row r="26" spans="1:256" hidden="1"/>
@@ -21583,31 +21583,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="23.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
     </row>
     <row r="2" spans="1:23" s="107" customFormat="1" ht="23.25">
       <c r="A2" s="86"/>
@@ -21663,19 +21663,19 @@
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="87"/>
@@ -21797,39 +21797,39 @@
         <f>SUM(J7:V7)</f>
         <v>5</v>
       </c>
-      <c r="D7" s="159">
-        <v>1</v>
-      </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="159">
-        <v>1</v>
-      </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="159">
-        <v>1</v>
-      </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="159">
-        <v>1</v>
-      </c>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="159">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="159">
-        <v>1</v>
-      </c>
-      <c r="T7" s="161"/>
-      <c r="U7" s="159">
-        <v>1</v>
-      </c>
-      <c r="V7" s="161"/>
+      <c r="D7" s="160">
+        <v>1</v>
+      </c>
+      <c r="E7" s="161"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="160">
+        <v>1</v>
+      </c>
+      <c r="H7" s="161"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="160">
+        <v>1</v>
+      </c>
+      <c r="K7" s="161"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="160">
+        <v>1</v>
+      </c>
+      <c r="N7" s="161"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="160">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="160">
+        <v>1</v>
+      </c>
+      <c r="T7" s="162"/>
+      <c r="U7" s="160">
+        <v>1</v>
+      </c>
+      <c r="V7" s="162"/>
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="1:23">
@@ -21841,46 +21841,46 @@
         <f>SUM(C7)</f>
         <v>5</v>
       </c>
-      <c r="D8" s="155">
+      <c r="D8" s="156">
         <f t="shared" ref="D8:U8" si="0">SUM(D7)</f>
         <v>1</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="155">
+      <c r="E8" s="157"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="155">
+      <c r="H8" s="157"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K8" s="156"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="155">
+      <c r="K8" s="157"/>
+      <c r="L8" s="158"/>
+      <c r="M8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N8" s="156"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="155">
+      <c r="N8" s="157"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="155">
+      <c r="Q8" s="157"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T8" s="157"/>
-      <c r="U8" s="155">
+      <c r="T8" s="158"/>
+      <c r="U8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V8" s="157"/>
+      <c r="V8" s="158"/>
       <c r="W8" s="23">
         <f>C8*26*100*0.8</f>
         <v>10400</v>
@@ -21963,46 +21963,46 @@
         <f t="shared" ref="C10" si="1">SUM(C9:C9)</f>
         <v>42577</v>
       </c>
-      <c r="D10" s="129">
+      <c r="D10" s="130">
         <f>D9+E9+F9</f>
         <v>4235</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="129">
+      <c r="E10" s="131"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="130">
         <f>G9+H9+I9</f>
         <v>6534</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="129">
+      <c r="H10" s="131"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="130">
         <f>J9+K9+L9</f>
         <v>11090</v>
       </c>
-      <c r="K10" s="130"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="129">
+      <c r="K10" s="131"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="130">
         <f>M9+N9+O9</f>
         <v>15749</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="129">
+      <c r="N10" s="131"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="130">
         <f>P9+Q9+R9</f>
         <v>11377</v>
       </c>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="129">
+      <c r="Q10" s="131"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="130">
         <f>S9+T9</f>
         <v>3601</v>
       </c>
-      <c r="T10" s="130"/>
-      <c r="U10" s="129">
+      <c r="T10" s="131"/>
+      <c r="U10" s="130">
         <f>U9+V9</f>
         <v>760</v>
       </c>
-      <c r="V10" s="130"/>
+      <c r="V10" s="131"/>
       <c r="W10" s="32"/>
     </row>
     <row r="11" spans="1:23" s="109" customFormat="1">
@@ -22039,49 +22039,49 @@
         <f t="shared" ref="C12:V12" si="2">C9</f>
         <v>42577</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="133">
         <f>D10</f>
         <v>4235</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="132">
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="133">
         <f>G10</f>
         <v>6534</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="132">
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="133">
         <f>J10</f>
         <v>11090</v>
       </c>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="132">
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="133">
         <f>M10</f>
         <v>15749</v>
       </c>
-      <c r="N12" s="133"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="132">
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="133">
         <f>P10</f>
         <v>11377</v>
       </c>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="129">
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="130">
         <f t="shared" si="2"/>
         <v>1834</v>
       </c>
-      <c r="T12" s="130">
+      <c r="T12" s="131">
         <f t="shared" si="2"/>
         <v>1767</v>
       </c>
-      <c r="U12" s="129">
+      <c r="U12" s="130">
         <f t="shared" si="2"/>
         <v>560</v>
       </c>
-      <c r="V12" s="130">
+      <c r="V12" s="131">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
@@ -22093,49 +22093,49 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="152">
+      <c r="D13" s="153">
         <f>D12/D8/400</f>
         <v>10.5875</v>
       </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="152">
+      <c r="E13" s="154"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="153">
         <f>G12/G8/400</f>
         <v>16.335000000000001</v>
       </c>
-      <c r="H13" s="153"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="152">
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="153">
         <f>J12/J8/400</f>
         <v>27.725000000000001</v>
       </c>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="152">
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="153">
         <f>M12/M8/400</f>
         <v>39.372500000000002</v>
       </c>
-      <c r="N13" s="153"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="152">
+      <c r="N13" s="154"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="153">
         <f>P12/P8/400</f>
         <v>28.442499999999999</v>
       </c>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="150">
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="151">
         <f>S12/S8/400</f>
         <v>4.585</v>
       </c>
-      <c r="T13" s="151" t="e">
+      <c r="T13" s="152" t="e">
         <f t="shared" ref="T13:V13" si="3">T12/T8/55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="150">
+      <c r="U13" s="151">
         <f>U12/U8/400</f>
         <v>1.4</v>
       </c>
-      <c r="V13" s="151" t="e">
+      <c r="V13" s="152" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -22147,61 +22147,61 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="126">
+      <c r="D14" s="127">
         <v>43518</v>
       </c>
-      <c r="E14" s="127">
+      <c r="E14" s="128">
         <v>43518</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="129">
         <v>43518</v>
       </c>
-      <c r="G14" s="126">
+      <c r="G14" s="127">
         <v>43518</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="128">
         <v>43518</v>
       </c>
-      <c r="I14" s="128">
+      <c r="I14" s="129">
         <v>43518</v>
       </c>
-      <c r="J14" s="126">
+      <c r="J14" s="127">
         <v>43518</v>
       </c>
-      <c r="K14" s="127">
+      <c r="K14" s="128">
         <v>43518</v>
       </c>
-      <c r="L14" s="128">
+      <c r="L14" s="129">
         <v>43518</v>
       </c>
-      <c r="M14" s="126">
+      <c r="M14" s="127">
         <v>43518</v>
       </c>
-      <c r="N14" s="127">
+      <c r="N14" s="128">
         <v>43518</v>
       </c>
-      <c r="O14" s="128">
+      <c r="O14" s="129">
         <v>43518</v>
       </c>
-      <c r="P14" s="126">
+      <c r="P14" s="127">
         <v>43518</v>
       </c>
-      <c r="Q14" s="127">
+      <c r="Q14" s="128">
         <v>43518</v>
       </c>
-      <c r="R14" s="128">
+      <c r="R14" s="129">
         <v>43518</v>
       </c>
-      <c r="S14" s="124">
+      <c r="S14" s="125">
         <v>43518</v>
       </c>
-      <c r="T14" s="131">
+      <c r="T14" s="132">
         <v>43518</v>
       </c>
-      <c r="U14" s="124">
+      <c r="U14" s="125">
         <v>43518</v>
       </c>
-      <c r="V14" s="131">
+      <c r="V14" s="132">
         <v>43518</v>
       </c>
       <c r="W14" s="43"/>
@@ -22215,79 +22215,79 @@
         <f>MAX(J15:V15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="127">
         <f t="shared" ref="D15:I15" si="4">D14+D13+D13/6</f>
         <v>43530.352083333331</v>
       </c>
-      <c r="E15" s="127">
+      <c r="E15" s="128">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="129">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="G15" s="147">
+      <c r="G15" s="148">
         <f t="shared" si="4"/>
         <v>43537.057500000003</v>
       </c>
-      <c r="H15" s="148">
+      <c r="H15" s="149">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="I15" s="149">
+      <c r="I15" s="150">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="J15" s="162">
+      <c r="J15" s="163">
         <f>J14+J13+J13/6</f>
         <v>43550.345833333333</v>
       </c>
-      <c r="K15" s="163">
+      <c r="K15" s="164">
         <f t="shared" ref="K15:V15" si="5">K14+K13+K13/6</f>
         <v>43518</v>
       </c>
-      <c r="L15" s="164">
+      <c r="L15" s="165">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="M15" s="162">
+      <c r="M15" s="163">
         <f t="shared" si="5"/>
         <v>43563.934583333328</v>
       </c>
-      <c r="N15" s="163">
+      <c r="N15" s="164">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="O15" s="164">
+      <c r="O15" s="165">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="P15" s="162">
+      <c r="P15" s="163">
         <f t="shared" si="5"/>
         <v>43551.182916666665</v>
       </c>
-      <c r="Q15" s="163">
+      <c r="Q15" s="164">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="R15" s="164">
+      <c r="R15" s="165">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="S15" s="124">
+      <c r="S15" s="125">
         <f t="shared" si="5"/>
         <v>43523.349166666667</v>
       </c>
-      <c r="T15" s="131" t="e">
+      <c r="T15" s="132" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="124">
+      <c r="U15" s="125">
         <f t="shared" si="5"/>
         <v>43519.633333333331</v>
       </c>
-      <c r="V15" s="131" t="e">
+      <c r="V15" s="132" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -22299,61 +22299,61 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="126">
+      <c r="D16" s="127">
         <v>43539</v>
       </c>
-      <c r="E16" s="127">
+      <c r="E16" s="128">
         <v>43549</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="129">
         <v>43549</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="127">
         <v>43539</v>
       </c>
-      <c r="H16" s="127">
+      <c r="H16" s="128">
         <v>43549</v>
       </c>
-      <c r="I16" s="128">
+      <c r="I16" s="129">
         <v>43549</v>
       </c>
-      <c r="J16" s="126">
+      <c r="J16" s="127">
         <v>43539</v>
       </c>
-      <c r="K16" s="127">
+      <c r="K16" s="128">
         <v>43549</v>
       </c>
-      <c r="L16" s="128">
+      <c r="L16" s="129">
         <v>43549</v>
       </c>
-      <c r="M16" s="126">
+      <c r="M16" s="127">
         <v>43539</v>
       </c>
-      <c r="N16" s="127">
+      <c r="N16" s="128">
         <v>43549</v>
       </c>
-      <c r="O16" s="128">
+      <c r="O16" s="129">
         <v>43549</v>
       </c>
-      <c r="P16" s="126">
+      <c r="P16" s="127">
         <v>43539</v>
       </c>
-      <c r="Q16" s="127">
+      <c r="Q16" s="128">
         <v>43549</v>
       </c>
-      <c r="R16" s="128">
+      <c r="R16" s="129">
         <v>43549</v>
       </c>
-      <c r="S16" s="124">
+      <c r="S16" s="125">
         <v>43539</v>
       </c>
-      <c r="T16" s="131">
+      <c r="T16" s="132">
         <v>43549</v>
       </c>
-      <c r="U16" s="124">
+      <c r="U16" s="125">
         <v>43539</v>
       </c>
-      <c r="V16" s="131">
+      <c r="V16" s="132">
         <v>43549</v>
       </c>
       <c r="W16" s="43"/>
@@ -22392,43 +22392,43 @@
         <f>D18+G18+J18+M18+P18+S18+U18</f>
         <v>11</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="138">
+      <c r="D18" s="139"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="139">
         <v>3</v>
       </c>
-      <c r="K18" s="146">
+      <c r="K18" s="147">
         <v>2</v>
       </c>
-      <c r="L18" s="139">
+      <c r="L18" s="140">
         <v>3</v>
       </c>
-      <c r="M18" s="138">
+      <c r="M18" s="139">
         <v>5</v>
       </c>
-      <c r="N18" s="146">
+      <c r="N18" s="147">
         <v>6</v>
       </c>
-      <c r="O18" s="139">
+      <c r="O18" s="140">
         <v>2</v>
       </c>
-      <c r="P18" s="138">
+      <c r="P18" s="139">
         <v>3</v>
       </c>
-      <c r="Q18" s="146">
+      <c r="Q18" s="147">
         <v>3</v>
       </c>
-      <c r="R18" s="139">
+      <c r="R18" s="140">
         <v>2</v>
       </c>
-      <c r="S18" s="138"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="141"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="142"/>
       <c r="W18" s="60"/>
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
@@ -22673,46 +22673,46 @@
         <f>C8+C18</f>
         <v>16</v>
       </c>
-      <c r="D19" s="142">
+      <c r="D19" s="143">
         <f>D8+D18</f>
         <v>1</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="142">
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="143">
         <f>G8+G18</f>
         <v>1</v>
       </c>
-      <c r="H19" s="143"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="142">
+      <c r="H19" s="144"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="143">
         <f>J8+J18</f>
         <v>4</v>
       </c>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="142">
+      <c r="K19" s="144"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="143">
         <f>M8+M18</f>
         <v>6</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="142">
+      <c r="N19" s="144"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="143">
         <f>P8+P18</f>
         <v>4</v>
       </c>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="142">
+      <c r="Q19" s="144"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="143">
         <f>S8+S18</f>
         <v>1</v>
       </c>
-      <c r="T19" s="143"/>
-      <c r="U19" s="145">
+      <c r="T19" s="144"/>
+      <c r="U19" s="146">
         <f>V8+V18</f>
         <v>0</v>
       </c>
-      <c r="V19" s="145"/>
+      <c r="V19" s="146"/>
       <c r="W19" s="67"/>
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
@@ -22956,52 +22956,52 @@
         <v>23</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="132">
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="133">
         <f t="shared" ref="J20" si="6">J12-14*J7*400</f>
         <v>5490</v>
       </c>
-      <c r="K20" s="133">
+      <c r="K20" s="134">
         <f t="shared" ref="K20:R20" si="7">K12-14*K7*110</f>
         <v>0</v>
       </c>
-      <c r="L20" s="134">
+      <c r="L20" s="135">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M20" s="132">
+      <c r="M20" s="133">
         <f t="shared" ref="M20" si="8">M12-14*M7*400</f>
         <v>10149</v>
       </c>
-      <c r="N20" s="133">
+      <c r="N20" s="134">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O20" s="134">
+      <c r="O20" s="135">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P20" s="132">
+      <c r="P20" s="133">
         <f t="shared" ref="P20" si="9">P12-14*P7*400</f>
         <v>5777</v>
       </c>
-      <c r="Q20" s="133">
+      <c r="Q20" s="134">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R20" s="134">
+      <c r="R20" s="135">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S20" s="129"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="131"/>
       <c r="W20" s="43"/>
     </row>
     <row r="21" spans="1:256" s="110" customFormat="1">
@@ -23010,43 +23010,43 @@
       </c>
       <c r="B21" s="73"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="126">
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="127">
         <v>43535</v>
       </c>
-      <c r="K21" s="127">
+      <c r="K21" s="128">
         <v>43535</v>
       </c>
-      <c r="L21" s="128">
+      <c r="L21" s="129">
         <v>43535</v>
       </c>
-      <c r="M21" s="126">
+      <c r="M21" s="127">
         <v>43535</v>
       </c>
-      <c r="N21" s="127">
+      <c r="N21" s="128">
         <v>43535</v>
       </c>
-      <c r="O21" s="128">
+      <c r="O21" s="129">
         <v>43535</v>
       </c>
-      <c r="P21" s="126">
+      <c r="P21" s="127">
         <v>43535</v>
       </c>
-      <c r="Q21" s="127">
+      <c r="Q21" s="128">
         <v>43535</v>
       </c>
-      <c r="R21" s="128">
+      <c r="R21" s="129">
         <v>43535</v>
       </c>
-      <c r="S21" s="124"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="131"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="132"/>
       <c r="W21" s="43"/>
     </row>
     <row r="22" spans="1:256">
@@ -23055,52 +23055,52 @@
       </c>
       <c r="B22" s="76"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="132">
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="133">
         <f>J20/J19/400</f>
         <v>3.4312499999999999</v>
       </c>
-      <c r="K22" s="133" t="e">
+      <c r="K22" s="134" t="e">
         <f>K20/K19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="134" t="e">
+      <c r="L22" s="135" t="e">
         <f>L20/L19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="132">
+      <c r="M22" s="133">
         <f>M20/M19/400</f>
         <v>4.2287499999999998</v>
       </c>
-      <c r="N22" s="133" t="e">
+      <c r="N22" s="134" t="e">
         <f t="shared" ref="N22:R22" si="10">N20/N19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="134" t="e">
+      <c r="O22" s="135" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="132">
+      <c r="P22" s="133">
         <f>P20/P19/400</f>
         <v>3.6106250000000002</v>
       </c>
-      <c r="Q22" s="133" t="e">
+      <c r="Q22" s="134" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="134" t="e">
+      <c r="R22" s="135" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" s="129"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="131"/>
       <c r="W22" s="43"/>
     </row>
     <row r="23" spans="1:256" s="110" customFormat="1">
@@ -23112,52 +23112,52 @@
         <f>MAX(J23:U23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="124">
+      <c r="D23" s="125"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="132"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="125">
         <f t="shared" ref="J23:L23" si="11">J21+J22+J22/6</f>
         <v>43539.003125000003</v>
       </c>
-      <c r="K23" s="131" t="e">
+      <c r="K23" s="132" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="125" t="e">
+      <c r="L23" s="126" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="124">
+      <c r="M23" s="125">
         <f t="shared" ref="M23:R23" si="12">M21+M22+M22/6</f>
         <v>43539.933541666665</v>
       </c>
-      <c r="N23" s="131" t="e">
+      <c r="N23" s="132" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="125" t="e">
+      <c r="O23" s="126" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="124">
+      <c r="P23" s="125">
         <f t="shared" si="12"/>
         <v>43539.212395833332</v>
       </c>
-      <c r="Q23" s="131" t="e">
+      <c r="Q23" s="132" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="125" t="e">
+      <c r="R23" s="126" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="126"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="128"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="129"/>
       <c r="W23" s="43"/>
     </row>
     <row r="24" spans="1:256" s="110" customFormat="1">
@@ -23166,43 +23166,43 @@
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="126">
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="127">
         <v>43539</v>
       </c>
-      <c r="K24" s="127">
+      <c r="K24" s="128">
         <v>43549</v>
       </c>
-      <c r="L24" s="128">
+      <c r="L24" s="129">
         <v>43549</v>
       </c>
-      <c r="M24" s="126">
+      <c r="M24" s="127">
         <v>43539</v>
       </c>
-      <c r="N24" s="127">
+      <c r="N24" s="128">
         <v>43549</v>
       </c>
-      <c r="O24" s="128">
+      <c r="O24" s="129">
         <v>43549</v>
       </c>
-      <c r="P24" s="126">
+      <c r="P24" s="127">
         <v>43539</v>
       </c>
-      <c r="Q24" s="127">
+      <c r="Q24" s="128">
         <v>43549</v>
       </c>
-      <c r="R24" s="128">
+      <c r="R24" s="129">
         <v>43549</v>
       </c>
-      <c r="S24" s="124"/>
-      <c r="T24" s="131"/>
-      <c r="U24" s="124"/>
-      <c r="V24" s="131"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="132"/>
       <c r="W24" s="43"/>
     </row>
     <row r="26" spans="1:256" hidden="1"/>
@@ -23949,31 +23949,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="121"/>
-      <c r="S1" s="121"/>
-      <c r="T1" s="121"/>
-      <c r="U1" s="121"/>
-      <c r="V1" s="121"/>
-      <c r="W1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
     </row>
     <row r="2" spans="1:24" s="107" customFormat="1" ht="23.25">
       <c r="A2" s="86"/>
@@ -24029,19 +24029,19 @@
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
       <c r="O4" s="87"/>
@@ -24166,35 +24166,35 @@
         <f>SUM(D7:V7)</f>
         <v>7</v>
       </c>
-      <c r="D7" s="159">
-        <v>1</v>
-      </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="159">
-        <v>1</v>
-      </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="159">
-        <v>1</v>
-      </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="159">
-        <v>1</v>
-      </c>
-      <c r="N7" s="160"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="159">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="161"/>
-      <c r="S7" s="159">
-        <v>1</v>
-      </c>
-      <c r="T7" s="161"/>
+      <c r="D7" s="160">
+        <v>1</v>
+      </c>
+      <c r="E7" s="161"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="160">
+        <v>1</v>
+      </c>
+      <c r="H7" s="161"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="160">
+        <v>1</v>
+      </c>
+      <c r="K7" s="161"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="160">
+        <v>1</v>
+      </c>
+      <c r="N7" s="161"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="160">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="162"/>
+      <c r="S7" s="160">
+        <v>1</v>
+      </c>
+      <c r="T7" s="162"/>
       <c r="U7" s="92">
         <v>1</v>
       </c>
@@ -24228,23 +24228,23 @@
       </c>
       <c r="K8" s="95"/>
       <c r="L8" s="96"/>
-      <c r="M8" s="165">
+      <c r="M8" s="166">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N8" s="166"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="155">
+      <c r="N8" s="167"/>
+      <c r="O8" s="168"/>
+      <c r="P8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="156"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="155">
+      <c r="Q8" s="157"/>
+      <c r="R8" s="158"/>
+      <c r="S8" s="156">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T8" s="157"/>
+      <c r="T8" s="158"/>
       <c r="U8" s="94">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -24332,46 +24332,46 @@
         <f t="shared" ref="C10" si="1">SUM(C9:C9)</f>
         <v>100479</v>
       </c>
-      <c r="D10" s="129">
+      <c r="D10" s="130">
         <f>D9+E9+F9</f>
         <v>9077</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="129">
+      <c r="E10" s="131"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="130">
         <f>G9+H9+I9</f>
         <v>14382</v>
       </c>
-      <c r="H10" s="130"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="129">
+      <c r="H10" s="131"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="130">
         <f>J9+K9+L9</f>
         <v>20188</v>
       </c>
-      <c r="K10" s="130"/>
-      <c r="L10" s="158"/>
-      <c r="M10" s="129">
+      <c r="K10" s="131"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="130">
         <f>M9+N9+O9</f>
         <v>25501</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="158"/>
-      <c r="P10" s="129">
+      <c r="N10" s="131"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="130">
         <f>P9+Q9+R9</f>
         <v>21870</v>
       </c>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="129">
+      <c r="Q10" s="131"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="130">
         <f>S9+T9</f>
         <v>7325</v>
       </c>
-      <c r="T10" s="130"/>
-      <c r="U10" s="129">
+      <c r="T10" s="131"/>
+      <c r="U10" s="130">
         <f>U9+V9</f>
         <v>2136</v>
       </c>
-      <c r="V10" s="130"/>
+      <c r="V10" s="131"/>
       <c r="W10" s="32"/>
     </row>
     <row r="11" spans="1:24" s="109" customFormat="1">
@@ -24408,49 +24408,49 @@
         <f t="shared" ref="C12:V12" si="2">C9</f>
         <v>100479</v>
       </c>
-      <c r="D12" s="132">
+      <c r="D12" s="133">
         <f>D10</f>
         <v>9077</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="132">
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="133">
         <f>G10</f>
         <v>14382</v>
       </c>
-      <c r="H12" s="133"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="132">
+      <c r="H12" s="134"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="133">
         <f>J10</f>
         <v>20188</v>
       </c>
-      <c r="K12" s="133"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="132">
+      <c r="K12" s="134"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="133">
         <f>M10</f>
         <v>25501</v>
       </c>
-      <c r="N12" s="133"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="132">
+      <c r="N12" s="134"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="133">
         <f>P10</f>
         <v>21870</v>
       </c>
-      <c r="Q12" s="133"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="129">
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="130">
         <f t="shared" si="2"/>
         <v>3529</v>
       </c>
-      <c r="T12" s="130">
+      <c r="T12" s="131">
         <f t="shared" si="2"/>
         <v>3796</v>
       </c>
-      <c r="U12" s="129">
+      <c r="U12" s="130">
         <f t="shared" si="2"/>
         <v>1603</v>
       </c>
-      <c r="V12" s="130">
+      <c r="V12" s="131">
         <f t="shared" si="2"/>
         <v>533</v>
       </c>
@@ -24462,49 +24462,49 @@
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="152">
+      <c r="D13" s="153">
         <f>D12/D8/500</f>
         <v>18.154</v>
       </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="152">
+      <c r="E13" s="154"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="153">
         <f>G12/G8/500</f>
         <v>28.763999999999999</v>
       </c>
-      <c r="H13" s="153"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="152">
+      <c r="H13" s="154"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="153">
         <f>J12/J8/500</f>
         <v>40.375999999999998</v>
       </c>
-      <c r="K13" s="153"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="152">
+      <c r="K13" s="154"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="153">
         <f>M12/M8/500</f>
         <v>51.002000000000002</v>
       </c>
-      <c r="N13" s="153"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="152">
+      <c r="N13" s="154"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="153">
         <f>P12/P8/500</f>
         <v>43.74</v>
       </c>
-      <c r="Q13" s="153"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="150">
+      <c r="Q13" s="154"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="151">
         <f>S12/S8/500</f>
         <v>7.0579999999999998</v>
       </c>
-      <c r="T13" s="151" t="e">
+      <c r="T13" s="152" t="e">
         <f t="shared" ref="T13:V13" si="3">T12/T8/55</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="150">
+      <c r="U13" s="151">
         <f>U12/U8/500</f>
         <v>3.206</v>
       </c>
-      <c r="V13" s="151" t="e">
+      <c r="V13" s="152" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -24516,61 +24516,61 @@
       </c>
       <c r="B14" s="40"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="126">
+      <c r="D14" s="127">
         <v>43518</v>
       </c>
-      <c r="E14" s="127">
+      <c r="E14" s="128">
         <v>43518</v>
       </c>
-      <c r="F14" s="128">
+      <c r="F14" s="129">
         <v>43518</v>
       </c>
-      <c r="G14" s="126">
+      <c r="G14" s="127">
         <v>43518</v>
       </c>
-      <c r="H14" s="127">
+      <c r="H14" s="128">
         <v>43518</v>
       </c>
-      <c r="I14" s="128">
+      <c r="I14" s="129">
         <v>43518</v>
       </c>
-      <c r="J14" s="126">
+      <c r="J14" s="127">
         <v>43518</v>
       </c>
-      <c r="K14" s="127">
+      <c r="K14" s="128">
         <v>43518</v>
       </c>
-      <c r="L14" s="128">
+      <c r="L14" s="129">
         <v>43518</v>
       </c>
-      <c r="M14" s="126">
+      <c r="M14" s="127">
         <v>43518</v>
       </c>
-      <c r="N14" s="127">
+      <c r="N14" s="128">
         <v>43518</v>
       </c>
-      <c r="O14" s="128">
+      <c r="O14" s="129">
         <v>43518</v>
       </c>
-      <c r="P14" s="126">
+      <c r="P14" s="127">
         <v>43518</v>
       </c>
-      <c r="Q14" s="127">
+      <c r="Q14" s="128">
         <v>43518</v>
       </c>
-      <c r="R14" s="128">
+      <c r="R14" s="129">
         <v>43518</v>
       </c>
-      <c r="S14" s="124">
+      <c r="S14" s="125">
         <v>43518</v>
       </c>
-      <c r="T14" s="131">
+      <c r="T14" s="132">
         <v>43518</v>
       </c>
-      <c r="U14" s="124">
+      <c r="U14" s="125">
         <v>43518</v>
       </c>
-      <c r="V14" s="131">
+      <c r="V14" s="132">
         <v>43518</v>
       </c>
       <c r="W14" s="43"/>
@@ -24584,79 +24584,79 @@
         <f>MAX(D15:V15)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D15" s="126">
+      <c r="D15" s="127">
         <f t="shared" ref="D15:I15" si="4">D14+D13+D13/6</f>
         <v>43539.179666666671</v>
       </c>
-      <c r="E15" s="127">
+      <c r="E15" s="128">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="F15" s="128">
+      <c r="F15" s="129">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="G15" s="162">
+      <c r="G15" s="163">
         <f t="shared" si="4"/>
         <v>43551.558000000005</v>
       </c>
-      <c r="H15" s="163">
+      <c r="H15" s="164">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="I15" s="164">
+      <c r="I15" s="165">
         <f t="shared" si="4"/>
         <v>43518</v>
       </c>
-      <c r="J15" s="162">
+      <c r="J15" s="163">
         <f>J14+J13+J13/6</f>
         <v>43565.105333333333</v>
       </c>
-      <c r="K15" s="163">
+      <c r="K15" s="164">
         <f t="shared" ref="K15:V15" si="5">K14+K13+K13/6</f>
         <v>43518</v>
       </c>
-      <c r="L15" s="164">
+      <c r="L15" s="165">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="M15" s="162">
+      <c r="M15" s="163">
         <f t="shared" si="5"/>
         <v>43577.50233333333</v>
       </c>
-      <c r="N15" s="163">
+      <c r="N15" s="164">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="O15" s="164">
+      <c r="O15" s="165">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="P15" s="162">
+      <c r="P15" s="163">
         <f t="shared" si="5"/>
         <v>43569.03</v>
       </c>
-      <c r="Q15" s="163">
+      <c r="Q15" s="164">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="R15" s="164">
+      <c r="R15" s="165">
         <f t="shared" si="5"/>
         <v>43518</v>
       </c>
-      <c r="S15" s="124">
+      <c r="S15" s="125">
         <f t="shared" si="5"/>
         <v>43526.234333333334</v>
       </c>
-      <c r="T15" s="131" t="e">
+      <c r="T15" s="132" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="124">
+      <c r="U15" s="125">
         <f t="shared" si="5"/>
         <v>43521.740333333335</v>
       </c>
-      <c r="V15" s="131" t="e">
+      <c r="V15" s="132" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -24668,61 +24668,61 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="46"/>
-      <c r="D16" s="126">
+      <c r="D16" s="127">
         <v>43539</v>
       </c>
-      <c r="E16" s="127">
+      <c r="E16" s="128">
         <v>43549</v>
       </c>
-      <c r="F16" s="128">
+      <c r="F16" s="129">
         <v>43549</v>
       </c>
-      <c r="G16" s="126">
+      <c r="G16" s="127">
         <v>43539</v>
       </c>
-      <c r="H16" s="127">
+      <c r="H16" s="128">
         <v>43549</v>
       </c>
-      <c r="I16" s="128">
+      <c r="I16" s="129">
         <v>43549</v>
       </c>
-      <c r="J16" s="126">
+      <c r="J16" s="127">
         <v>43539</v>
       </c>
-      <c r="K16" s="127">
+      <c r="K16" s="128">
         <v>43549</v>
       </c>
-      <c r="L16" s="128">
+      <c r="L16" s="129">
         <v>43549</v>
       </c>
-      <c r="M16" s="126">
+      <c r="M16" s="127">
         <v>43539</v>
       </c>
-      <c r="N16" s="127">
+      <c r="N16" s="128">
         <v>43549</v>
       </c>
-      <c r="O16" s="128">
+      <c r="O16" s="129">
         <v>43549</v>
       </c>
-      <c r="P16" s="126">
+      <c r="P16" s="127">
         <v>43539</v>
       </c>
-      <c r="Q16" s="127">
+      <c r="Q16" s="128">
         <v>43549</v>
       </c>
-      <c r="R16" s="128">
+      <c r="R16" s="129">
         <v>43549</v>
       </c>
-      <c r="S16" s="124">
+      <c r="S16" s="125">
         <v>43539</v>
       </c>
-      <c r="T16" s="131">
+      <c r="T16" s="132">
         <v>43549</v>
       </c>
-      <c r="U16" s="124">
+      <c r="U16" s="125">
         <v>43539</v>
       </c>
-      <c r="V16" s="131">
+      <c r="V16" s="132">
         <v>43549</v>
       </c>
       <c r="W16" s="43"/>
@@ -24761,47 +24761,47 @@
         <f>D18+G18+J18+M18+P18+S18+U18</f>
         <v>17</v>
       </c>
-      <c r="D18" s="138"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="138">
+      <c r="D18" s="139"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="139">
         <v>2</v>
       </c>
-      <c r="H18" s="146">
+      <c r="H18" s="147">
         <v>2</v>
       </c>
-      <c r="I18" s="139"/>
-      <c r="J18" s="138">
+      <c r="I18" s="140"/>
+      <c r="J18" s="139">
         <v>4</v>
       </c>
-      <c r="K18" s="146">
+      <c r="K18" s="147">
         <v>2</v>
       </c>
-      <c r="L18" s="139">
+      <c r="L18" s="140">
         <v>3</v>
       </c>
-      <c r="M18" s="138">
+      <c r="M18" s="139">
         <v>6</v>
       </c>
-      <c r="N18" s="146">
+      <c r="N18" s="147">
         <v>6</v>
       </c>
-      <c r="O18" s="139">
+      <c r="O18" s="140">
         <v>2</v>
       </c>
-      <c r="P18" s="138">
+      <c r="P18" s="139">
         <v>5</v>
       </c>
-      <c r="Q18" s="146">
+      <c r="Q18" s="147">
         <v>3</v>
       </c>
-      <c r="R18" s="139">
+      <c r="R18" s="140">
         <v>2</v>
       </c>
-      <c r="S18" s="138"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="141"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="140"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="142"/>
       <c r="W18" s="60"/>
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
@@ -25046,46 +25046,46 @@
         <f>C8+C18</f>
         <v>24</v>
       </c>
-      <c r="D19" s="142">
+      <c r="D19" s="143">
         <f>D8+D18</f>
         <v>1</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="142">
+      <c r="E19" s="144"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="143">
         <f>G8+G18</f>
         <v>3</v>
       </c>
-      <c r="H19" s="143"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="142">
+      <c r="H19" s="144"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="143">
         <f>J8+J18</f>
         <v>5</v>
       </c>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="142">
+      <c r="K19" s="144"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="143">
         <f>M8+M18</f>
         <v>7</v>
       </c>
-      <c r="N19" s="143"/>
-      <c r="O19" s="144"/>
-      <c r="P19" s="142">
+      <c r="N19" s="144"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="143">
         <f>P8+P18</f>
         <v>6</v>
       </c>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="144"/>
-      <c r="S19" s="142">
+      <c r="Q19" s="144"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="143">
         <f>S8+S18</f>
         <v>1</v>
       </c>
-      <c r="T19" s="143"/>
-      <c r="U19" s="145">
+      <c r="T19" s="144"/>
+      <c r="U19" s="146">
         <f>V8+V18</f>
         <v>0</v>
       </c>
-      <c r="V19" s="145"/>
+      <c r="V19" s="146"/>
       <c r="W19" s="67"/>
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
@@ -25329,61 +25329,61 @@
         <v>23</v>
       </c>
       <c r="C20" s="30"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="132">
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="133">
         <f>G12-14*G7*500</f>
         <v>7382</v>
       </c>
-      <c r="H20" s="133">
+      <c r="H20" s="134">
         <f t="shared" ref="H20:R20" si="6">H12-14*H7*110</f>
         <v>0</v>
       </c>
-      <c r="I20" s="134">
+      <c r="I20" s="135">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J20" s="132">
+      <c r="J20" s="133">
         <f>J12-14*J7*500</f>
         <v>13188</v>
       </c>
-      <c r="K20" s="133">
+      <c r="K20" s="134">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L20" s="134">
+      <c r="L20" s="135">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M20" s="132">
+      <c r="M20" s="133">
         <f>M12-14*M7*500</f>
         <v>18501</v>
       </c>
-      <c r="N20" s="133">
+      <c r="N20" s="134">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O20" s="134">
+      <c r="O20" s="135">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P20" s="132">
+      <c r="P20" s="133">
         <f>P12-14*P7*500</f>
         <v>14870</v>
       </c>
-      <c r="Q20" s="133">
+      <c r="Q20" s="134">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="134">
+      <c r="R20" s="135">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S20" s="129"/>
-      <c r="T20" s="130"/>
-      <c r="U20" s="129"/>
-      <c r="V20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="131"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="131"/>
       <c r="W20" s="43"/>
     </row>
     <row r="21" spans="1:256" s="110" customFormat="1">
@@ -25392,49 +25392,49 @@
       </c>
       <c r="B21" s="73"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="126">
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="127">
         <v>43535</v>
       </c>
-      <c r="H21" s="127">
+      <c r="H21" s="128">
         <v>43535</v>
       </c>
-      <c r="I21" s="128">
+      <c r="I21" s="129">
         <v>43535</v>
       </c>
-      <c r="J21" s="126">
+      <c r="J21" s="127">
         <v>43535</v>
       </c>
-      <c r="K21" s="127">
+      <c r="K21" s="128">
         <v>43535</v>
       </c>
-      <c r="L21" s="128">
+      <c r="L21" s="129">
         <v>43535</v>
       </c>
-      <c r="M21" s="126">
+      <c r="M21" s="127">
         <v>43535</v>
       </c>
-      <c r="N21" s="127">
+      <c r="N21" s="128">
         <v>43535</v>
       </c>
-      <c r="O21" s="128">
+      <c r="O21" s="129">
         <v>43535</v>
       </c>
-      <c r="P21" s="126">
+      <c r="P21" s="127">
         <v>43535</v>
       </c>
-      <c r="Q21" s="127">
+      <c r="Q21" s="128">
         <v>43535</v>
       </c>
-      <c r="R21" s="128">
+      <c r="R21" s="129">
         <v>43535</v>
       </c>
-      <c r="S21" s="124"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="124"/>
-      <c r="V21" s="131"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="132"/>
       <c r="W21" s="43"/>
     </row>
     <row r="22" spans="1:256">
@@ -25443,61 +25443,61 @@
       </c>
       <c r="B22" s="76"/>
       <c r="C22" s="30"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="132">
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="133">
         <f>G20/G19/400</f>
         <v>6.1516666666666664</v>
       </c>
-      <c r="H22" s="133" t="e">
+      <c r="H22" s="134" t="e">
         <f>H20/H19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="134" t="e">
+      <c r="I22" s="135" t="e">
         <f>I20/I19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="132">
+      <c r="J22" s="133">
         <f>J20/J19/400</f>
         <v>6.5939999999999994</v>
       </c>
-      <c r="K22" s="133" t="e">
+      <c r="K22" s="134" t="e">
         <f>K20/K19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="134" t="e">
+      <c r="L22" s="135" t="e">
         <f>L20/L19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="132">
+      <c r="M22" s="133">
         <f>M20/M19/400</f>
         <v>6.6074999999999999</v>
       </c>
-      <c r="N22" s="133" t="e">
+      <c r="N22" s="134" t="e">
         <f t="shared" ref="N22:R22" si="7">N20/N19/110</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="134" t="e">
+      <c r="O22" s="135" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="132">
+      <c r="P22" s="133">
         <f>P20/P19/400</f>
         <v>6.1958333333333337</v>
       </c>
-      <c r="Q22" s="133" t="e">
+      <c r="Q22" s="134" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="134" t="e">
+      <c r="R22" s="135" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" s="129"/>
-      <c r="T22" s="130"/>
-      <c r="U22" s="129"/>
-      <c r="V22" s="130"/>
+      <c r="S22" s="130"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="130"/>
+      <c r="V22" s="131"/>
       <c r="W22" s="43"/>
     </row>
     <row r="23" spans="1:256" s="110" customFormat="1">
@@ -25509,61 +25509,61 @@
         <f>MAX(J23:U23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="124">
+      <c r="D23" s="125"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="125">
         <f t="shared" ref="G23:L23" si="8">G21+G22+G22/6</f>
         <v>43542.176944444444</v>
       </c>
-      <c r="H23" s="131" t="e">
+      <c r="H23" s="132" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="125" t="e">
+      <c r="I23" s="126" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="124">
+      <c r="J23" s="125">
         <f t="shared" si="8"/>
         <v>43542.692999999999</v>
       </c>
-      <c r="K23" s="131" t="e">
+      <c r="K23" s="132" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="125" t="e">
+      <c r="L23" s="126" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="124">
+      <c r="M23" s="125">
         <f t="shared" ref="M23:R23" si="9">M21+M22+M22/6</f>
         <v>43542.708749999998</v>
       </c>
-      <c r="N23" s="131" t="e">
+      <c r="N23" s="132" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="125" t="e">
+      <c r="O23" s="126" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="124">
+      <c r="P23" s="125">
         <f t="shared" si="9"/>
         <v>43542.228472222218</v>
       </c>
-      <c r="Q23" s="131" t="e">
+      <c r="Q23" s="132" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="125" t="e">
+      <c r="R23" s="126" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="126"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="126"/>
-      <c r="V23" s="128"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="129"/>
+      <c r="U23" s="127"/>
+      <c r="V23" s="129"/>
       <c r="W23" s="43"/>
     </row>
     <row r="24" spans="1:256" s="110" customFormat="1">
@@ -25572,55 +25572,55 @@
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="126">
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="127">
         <v>43539</v>
       </c>
-      <c r="H24" s="127">
+      <c r="H24" s="128">
         <v>43549</v>
       </c>
-      <c r="I24" s="128">
+      <c r="I24" s="129">
         <v>43549</v>
       </c>
-      <c r="J24" s="126">
+      <c r="J24" s="127">
         <v>43539</v>
       </c>
-      <c r="K24" s="127">
+      <c r="K24" s="128">
         <v>43549</v>
       </c>
-      <c r="L24" s="128">
+      <c r="L24" s="129">
         <v>43549</v>
       </c>
-      <c r="M24" s="126">
+      <c r="M24" s="127">
         <v>43539</v>
       </c>
-      <c r="N24" s="127">
+      <c r="N24" s="128">
         <v>43549</v>
       </c>
-      <c r="O24" s="128">
+      <c r="O24" s="129">
         <v>43549</v>
       </c>
-      <c r="P24" s="126">
+      <c r="P24" s="127">
         <v>43539</v>
       </c>
-      <c r="Q24" s="127">
+      <c r="Q24" s="128">
         <v>43549</v>
       </c>
-      <c r="R24" s="128">
+      <c r="R24" s="129">
         <v>43549</v>
       </c>
-      <c r="S24" s="124">
+      <c r="S24" s="125">
         <v>43539</v>
       </c>
-      <c r="T24" s="131">
+      <c r="T24" s="132">
         <v>43549</v>
       </c>
-      <c r="U24" s="124">
+      <c r="U24" s="125">
         <v>43539</v>
       </c>
-      <c r="V24" s="131">
+      <c r="V24" s="132">
         <v>43549</v>
       </c>
       <c r="W24" s="43"/>
